--- a/data/long_dif/P23_11-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_11-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>16,37%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 24,05</t>
+          <t>12,65; 24,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,84</t>
+          <t>5,66; 11,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 21,88</t>
+          <t>6,28; 13,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 15,91</t>
+          <t>14,02; 20,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 21,46</t>
+          <t>10,26; 15,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,62</t>
+          <t>13,31; 20,61</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14,28; 21,3</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 12,53</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10,63; 15,63</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>73,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>69,98%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>67,92%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>69,54%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,21%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,36%</t>
+          <t>67,12%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>70,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>74,96%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68,48%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,17; 78,39</t>
+          <t>66,09; 78,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,15; 85,85</t>
+          <t>77,22; 85,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,3; 72,4</t>
+          <t>57,38; 76,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,7; 73,24</t>
+          <t>63,5; 72,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,41; 74,05</t>
+          <t>65,5; 73,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,7; 78,05</t>
+          <t>61,73; 71,39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>66,11; 73,81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>72,06; 77,69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>62,35; 72,27</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,84</t>
+          <t>7,04; 13,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 13,24</t>
+          <t>7,66; 14,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,32; 18,24</t>
+          <t>14,28; 35,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,66; 20,82</t>
+          <t>11,46; 18,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,58</t>
+          <t>14,95; 21,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 16,21</t>
+          <t>13,15; 20,63</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10,18; 14,77</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12,35; 16,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15,1; 26,96</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 18,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 17,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 22,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 18,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 18,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>77,74%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>75,13%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>70,93%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>72,11%</t>
+          <t>15,68%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,28; 82,45</t>
+          <t>8,13; 18,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,68; 79,79</t>
+          <t>8,39; 17,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58,84; 69,6</t>
+          <t>6,29; 13,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,67; 73,09</t>
+          <t>13,0; 22,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,29; 74,82</t>
+          <t>11,89; 18,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,45; 75,25</t>
+          <t>12,05; 20,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 18,42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 16,6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 15,48</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>78,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>74,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>67,59%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>71,01%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>71,84%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>69,79%</t>
         </is>
       </c>
     </row>
@@ -1023,64 +1219,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,81; 13,82</t>
+          <t>72,32; 83,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,73; 17,56</t>
+          <t>68,73; 79,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,87; 22,08</t>
+          <t>63,88; 77,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,94; 19,41</t>
+          <t>58,52; 69,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,57; 17,12</t>
+          <t>64,01; 72,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,34</t>
+          <t>61,99; 72,66</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>67,05; 75,07</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>67,96; 74,74</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65,11; 73,43</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1090,7 +1297,22 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14,47%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,67; 29,82</t>
+          <t>7,3; 13,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 13,26</t>
+          <t>9,67; 17,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,24; 25,03</t>
+          <t>13,68; 27,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 16,56</t>
+          <t>14,2; 22,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,48; 23,29</t>
+          <t>13,08; 19,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,72</t>
+          <t>12,93; 22,04</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 17,52</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12,3; 17,5</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 22,58</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>72,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>69,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>76,74%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>59,53; 81,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>70,14; 89,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,16; 76,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62,64; 79,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>61,98; 77,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>69,09; 82,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15,77%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18,21%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,19; 18,35</t>
+          <t>7,47; 27,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,7; 23,93</t>
+          <t>2,36; 12,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,87; 27,59</t>
+          <t>5,94; 52,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,59; 26,26</t>
+          <t>9,09; 25,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,0; 20,17</t>
+          <t>5,16; 16,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,47; 22,71</t>
+          <t>8,78; 24,67</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10,15; 22,86</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 12,13</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 35,71</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>73,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>66,31%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>70,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>70,84%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>69,95%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>75,98%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>69,17%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,96</t>
+          <t>61,69; 83,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,82</t>
+          <t>67,34; 89,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,7; 20,3</t>
+          <t>41,29; 81,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,43; 15,3</t>
+          <t>55,82; 74,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,34; 18,91</t>
+          <t>61,02; 78,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,91; 12,83</t>
+          <t>58,1; 80,93</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>61,96; 77,67</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>68,39; 81,77</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>53,39; 78,11</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>74,59%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>79,33%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>66,54%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>69,62%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>70,42%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>74,26%</t>
+          <t>13,25%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>70,26; 78,16</t>
+          <t>4,94; 18,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>76,05; 82,07</t>
+          <t>5,24; 28,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>63,62; 69,65</t>
+          <t>5,25; 24,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>66,81; 72,27</t>
+          <t>11,4; 27,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>67,6; 72,87</t>
+          <t>12,92; 28,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>72,19; 76,28</t>
+          <t>6,43; 26,98</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 19,77</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>10,77; 23,94</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 21,22</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>14,01; 18,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>11,61; 15,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>12,75; 16,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>17,08%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>11,42%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 18,73</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 11,92</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 15,71</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>14,61; 20,24</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 15,29</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>13,7; 18,8</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>13,94; 18,23</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>9,88; 12,88</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 15,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>75,18%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>78,75%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>70,47%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>66,4%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>69,38%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>67,71%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>70,63%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>73,87%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>69,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>71,05; 78,8</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>75,57; 81,87</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>63,97; 75,7</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>63,21; 69,36</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>66,82; 72,22</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>64,07; 70,8</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>67,87; 72,97</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>71,72; 75,82</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>65,32; 72,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>17,36%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 12,43</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>9,61; 14,69</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 26,51</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 19,27</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 19,61</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 19,2</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 15,16</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 16,53</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 21,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
